--- a/進捗状況.xlsx
+++ b/進捗状況.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\Clatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -616,7 +616,9 @@
       <c r="E3" s="2">
         <v>43382</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2">
+        <v>43383</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>

--- a/進捗状況.xlsx
+++ b/進捗状況.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -637,7 +637,9 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2">
+        <v>43397</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B5" s="1"/>
@@ -742,7 +744,9 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2">
+        <v>43397</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>

--- a/進捗状況.xlsx
+++ b/進捗状況.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>佐名木</t>
     <rPh sb="0" eb="3">
@@ -215,6 +215,13 @@
   </si>
   <si>
     <t>チャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐名木</t>
+    <rPh sb="0" eb="3">
+      <t>サナギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,6 +229,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +294,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -812,9 +825,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3">
+        <v>43397</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -823,15 +840,19 @@
         <v>23</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2">
+        <v>43410</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/進捗状況.xlsx
+++ b/進捗状況.xlsx
@@ -230,7 +230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -296,7 +296,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/進捗状況.xlsx
+++ b/進捗状況.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>佐名木</t>
     <rPh sb="0" eb="3">
@@ -221,6 +221,13 @@
     <t>佐名木</t>
     <rPh sb="0" eb="3">
       <t>サナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯田</t>
+    <rPh sb="0" eb="2">
+      <t>イソタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,7 +237,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -296,7 +303,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +589,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -702,7 +709,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2">
+        <v>43418</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B9" s="1"/>
@@ -792,9 +801,13 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2">
+        <v>43418</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
